--- a/docs/unit1/10_findiff/findiff-1_clayblanket_KEY.xlsx
+++ b/docs/unit1/10_findiff/findiff-1_clayblanket_KEY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/8. finite difference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEC867C-AE80-B343-81DF-A0360A7DB464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D7654-2627-C84F-9543-4AC137885A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="28600" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,14 +402,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9119</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -426,8 +426,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="428625" y="933450"/>
-          <a:ext cx="2428875" cy="0"/>
+          <a:off x="491474" y="1018606"/>
+          <a:ext cx="2751911" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -738,8 +738,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:KR87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="195" zoomScaleNormal="195" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
